--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brad.Warner\Documents\Data Science\Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brad.Warner\OneDrive - afacademy.af.edu\Classes\Core_Stats\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Lesson</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>LC 7.8 - 7.20</t>
+  </si>
+  <si>
+    <t>LC 7.21 - 7.24</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1171,9 @@
       <c r="C26" s="9">
         <v>7.4</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1467,7 +1472,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1480,11 +1489,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,9 +1553,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1564,17 +1576,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brad.Warner\OneDrive - afacademy.af.edu\Classes\Core_Stats\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usafa0-my.sharepoint.com/personal/bradley_warner_afacademy_af_edu/Documents/Classes/Core_Stats/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Lesson</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>LC 7.21 - 7.24</t>
+  </si>
+  <si>
+    <t>LCA.1, LCA.2</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1189,9 @@
       <c r="C27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,11 +1477,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,7 +1490,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,16 +1558,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1576,9 +1574,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Lesson</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>LCA.1, LCA.2</t>
+  </si>
+  <si>
+    <t>LC 8.1 - 8.2</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1204,7 +1207,9 @@
       <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="9" t="s">
         <v>42</v>
       </c>
@@ -1481,23 +1486,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5C94A361D64954281264BAF493AE844" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="81ea1c78d80ebef324ade6259c3b3b1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c6b8df-9cc8-43e4-bbbd-f4c12caad843" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a0ac25bd09fad5e401466e97be39ec2" ns2:_="">
     <xsd:import namespace="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
@@ -1557,6 +1545,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
@@ -1566,29 +1571,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F81F0C5C-371D-4027-80C1-967732A15C8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE750D2F-C13A-45A0-81B6-432F48C11B3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1603,4 +1585,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F81F0C5C-371D-4027-80C1-967732A15C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Lesson</t>
   </si>
@@ -310,6 +310,33 @@
   </si>
   <si>
     <t>LC 8.1 - 8.2</t>
+  </si>
+  <si>
+    <t>LC 8.3 - 8.4</t>
+  </si>
+  <si>
+    <t>LC 8.5</t>
+  </si>
+  <si>
+    <t>LC 9.1 - 9.4</t>
+  </si>
+  <si>
+    <t>LC 9.5 - 9.8</t>
+  </si>
+  <si>
+    <t>LC 9.9 - 9.15</t>
+  </si>
+  <si>
+    <t>LC 10.1</t>
+  </si>
+  <si>
+    <t>LC 11.1</t>
+  </si>
+  <si>
+    <t>LC 10.2</t>
+  </si>
+  <si>
+    <t>11 - 11.2</t>
   </si>
 </sst>
 </file>
@@ -448,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,7 +492,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -800,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -815,13 +841,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -841,13 +867,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -862,7 +888,7 @@
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -877,7 +903,7 @@
       <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -892,7 +918,7 @@
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -907,7 +933,7 @@
       <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -969,7 +995,7 @@
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -992,23 +1018,23 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1017,13 +1043,13 @@
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1032,13 +1058,13 @@
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>5.2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1047,13 +1073,13 @@
       <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1062,13 +1088,13 @@
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1079,13 +1105,13 @@
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>6.2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1094,11 +1120,11 @@
       <c r="B20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>6.3</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1107,11 +1133,11 @@
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>6.4</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1119,23 +1145,23 @@
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1144,13 +1170,13 @@
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1159,7 +1185,7 @@
       <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>7.3</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1171,10 +1197,10 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>7.4</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1186,31 +1212,31 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1218,53 +1244,57 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>8.4</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>8.5</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>8.6</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1272,23 +1302,23 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1300,8 +1330,8 @@
       <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1313,8 +1343,10 @@
       <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1326,8 +1358,10 @@
       <c r="C37" s="3">
         <v>9.4</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -1339,8 +1373,10 @@
       <c r="C38" s="3">
         <v>9.5</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -1352,8 +1388,8 @@
       <c r="C39" s="3">
         <v>9.6</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1366,7 +1402,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1377,37 +1413,41 @@
       <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>10.3</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>10.4</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>10.5</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1415,12 +1455,12 @@
       <c r="A44" s="3">
         <v>38</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1429,42 +1469,44 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="9">
-        <v>11.2</v>
+        <v>54</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="8"/>
+      <c r="B48" s="4"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="B51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1482,7 +1524,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,11 +1592,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1563,9 +1605,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1588,16 +1637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -826,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1524,11 +1524,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,7 +1588,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,16 +1605,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1637,9 +1630,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usafa0-my.sharepoint.com/personal/bradley_warner_afacademy_af_edu/Documents/Classes/Core_Stats/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brad.Warner\OneDrive - afacademy.af.edu\Classes\Core_Stats\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -827,7 +827,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1524,7 +1524,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,11 +1592,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,9 +1605,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1630,16 +1637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -1524,11 +1524,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,7 +1588,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,16 +1605,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1637,9 +1630,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1524,7 +1524,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,11 +1592,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,9 +1605,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1630,16 +1637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -826,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1524,11 +1524,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,7 +1588,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,16 +1605,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1637,9 +1630,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Admin/Math 300 Proposed Syllabus.xlsx
+++ b/Admin/Math 300 Proposed Syllabus.xlsx
@@ -186,9 +186,6 @@
     <t>Understanding CI</t>
   </si>
   <si>
-    <t>Intro to more Inference Examples</t>
-  </si>
-  <si>
     <t>GR 3</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>11 - 11.2</t>
+  </si>
+  <si>
+    <t>Inference Examples</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -895,13 +895,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -910,13 +910,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -931,7 +931,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -957,13 +957,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -972,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -987,13 +987,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -1002,13 +1002,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>14</v>
@@ -1044,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -1062,7 +1062,7 @@
         <v>5.2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1071,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1086,13 +1086,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>21</v>
@@ -1103,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="8">
         <v>6.2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1118,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="8">
         <v>6.3</v>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8">
         <v>6.4</v>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -1183,13 +1183,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8">
         <v>7.3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1204,7 +1204,7 @@
         <v>7.4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1213,13 +1213,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="8"/>
     </row>
@@ -1234,7 +1234,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>42</v>
@@ -1251,7 +1251,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="8"/>
     </row>
@@ -1266,7 +1266,7 @@
         <v>8.4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="8"/>
     </row>
@@ -1308,7 +1308,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>6</v>
@@ -1344,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>9.4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -1374,7 +1374,7 @@
         <v>9.5</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="8"/>
     </row>
@@ -1399,7 +1399,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="8" t="s">
@@ -1417,7 +1417,7 @@
         <v>10.3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="8"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>10.4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1461,7 +1461,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="3"/>
       <c r="E44" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,10 +1472,10 @@
         <v>24</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="8"/>
     </row>
@@ -1484,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>41</v>
@@ -1524,7 +1524,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,11 +1592,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Binding xmlns="72c6b8df-9cc8-43e4-bbbd-f4c12caad843">true</Binding>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,9 +1605,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1630,16 +1637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24140494-20CC-41C6-B8AE-61FD12F99C6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC62554B-1B75-408E-916B-6415182A4C31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c6b8df-9cc8-43e4-bbbd-f4c12caad843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
